--- a/Тех.задание.xlsx
+++ b/Тех.задание.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Техническое задание для парсера товаров WB</t>
   </si>
@@ -56,6 +56,13 @@
   </si>
   <si>
     <t>- составлению списка артикулов, которые есть на этих страницах</t>
+  </si>
+  <si>
+    <t>Задача</t>
+  </si>
+  <si>
+    <t>Написать на Python функцию, которая принимает в качестве параметра номер магазина на Wildberries, по которому нужно скачать все артикулы товаров (Тип int)
+На выходе функция дает массив всех артикулов, данного магазина (Каждый элемент массива - тип int)</t>
   </si>
 </sst>
 </file>
@@ -128,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -161,6 +168,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,11 +641,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,9 +804,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
